--- a/TestData/Web_POS/Promo/promo_test_data.xlsx
+++ b/TestData/Web_POS/Promo/promo_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\POS\Promo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Ginesys Zwing\Ginesys_Zwing_Automation\TestData\POS\Promo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,13 +90,13 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>307220324rGH</t>
+    <t>307220324WWP</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>AnandArya</t>
+    <t>i9Qa_user1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -579,25 +579,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -610,16 +593,15 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,8 +829,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A44">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="F1">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -954,7 +936,7 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -978,7 +960,7 @@
       <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="1">
@@ -993,13 +975,13 @@
       <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -1022,7 +1004,7 @@
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1046,7 +1028,7 @@
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="1">
@@ -1061,13 +1043,13 @@
       <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="O3" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1090,7 +1072,7 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1114,7 +1096,7 @@
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="1">
@@ -1129,13 +1111,13 @@
       <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="O4" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1158,7 +1140,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1182,7 +1164,7 @@
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="1">
@@ -1197,13 +1179,13 @@
       <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="O5" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -1226,7 +1208,7 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1250,7 +1232,7 @@
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="1">
@@ -1265,13 +1247,13 @@
       <c r="N6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+      <c r="O6" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -1294,7 +1276,7 @@
       <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1318,7 +1300,7 @@
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="1">
@@ -1333,13 +1315,13 @@
       <c r="N7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="O7" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1362,7 +1344,7 @@
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1386,7 +1368,7 @@
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>48</v>
       </c>
       <c r="K8" s="1">
@@ -1401,13 +1383,13 @@
       <c r="N8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+      <c r="O8" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -1430,7 +1412,7 @@
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1454,7 +1436,7 @@
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="1">
@@ -1469,13 +1451,13 @@
       <c r="N9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="5" t="s">
+      <c r="O9" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -1498,7 +1480,7 @@
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1522,7 +1504,7 @@
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="1">
@@ -1537,13 +1519,13 @@
       <c r="N10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+      <c r="O10" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1566,7 +1548,7 @@
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1590,7 +1572,7 @@
       <c r="I11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="1">
@@ -1605,13 +1587,13 @@
       <c r="N11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+      <c r="O11" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1634,7 +1616,7 @@
       <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1658,7 +1640,7 @@
       <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="1">
@@ -1673,13 +1655,13 @@
       <c r="N12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="O12" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1702,7 +1684,7 @@
       <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1741,13 +1723,13 @@
       <c r="N13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="5" t="s">
+      <c r="O13" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1770,7 +1752,7 @@
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1809,13 +1791,13 @@
       <c r="N14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="5" t="s">
+      <c r="O14" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1838,7 +1820,7 @@
       <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1877,13 +1859,13 @@
       <c r="N15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="5" t="s">
+      <c r="O15" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1906,7 +1888,7 @@
       <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1945,13 +1927,13 @@
       <c r="N16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="O16" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -1974,7 +1956,7 @@
       <c r="A17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2013,13 +1995,13 @@
       <c r="N17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+      <c r="O17" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -2042,7 +2024,7 @@
       <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2081,13 +2063,13 @@
       <c r="N18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O18" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="O18" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2110,7 +2092,7 @@
       <c r="A19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2149,13 +2131,13 @@
       <c r="N19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="5" t="s">
+      <c r="O19" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -2178,7 +2160,7 @@
       <c r="A20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2217,13 +2199,13 @@
       <c r="N20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="O20" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2246,7 +2228,7 @@
       <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2285,13 +2267,13 @@
       <c r="N21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O21" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="5" t="s">
+      <c r="O21" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -2314,7 +2296,7 @@
       <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2353,13 +2335,13 @@
       <c r="N22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="5" t="s">
+      <c r="O22" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -2382,7 +2364,7 @@
       <c r="A23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2421,13 +2403,13 @@
       <c r="N23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O23" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="5" t="s">
+      <c r="O23" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -2450,7 +2432,7 @@
       <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2487,28 +2469,28 @@
       <c r="N24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O24" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="5" t="s">
+      <c r="O24" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R24" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24" s="6">
+      <c r="S24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" s="5">
         <v>300</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2516,7 +2498,7 @@
       <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2555,13 +2537,13 @@
       <c r="N25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="5" t="s">
+      <c r="O25" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -2584,7 +2566,7 @@
       <c r="A26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2623,13 +2605,13 @@
       <c r="N26" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="5" t="s">
+      <c r="O26" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -2652,7 +2634,7 @@
       <c r="A27" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2691,13 +2673,13 @@
       <c r="N27" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="5" t="s">
+      <c r="O27" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -2720,7 +2702,7 @@
       <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2759,13 +2741,13 @@
       <c r="N28" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="5" t="s">
+      <c r="O28" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -2788,7 +2770,7 @@
       <c r="A29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2827,28 +2809,28 @@
       <c r="N29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="5" t="s">
+      <c r="O29" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="5">
         <v>100</v>
       </c>
-      <c r="T29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V29" s="7" t="s">
+      <c r="T29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2856,7 +2838,7 @@
       <c r="A30" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2895,28 +2877,28 @@
       <c r="N30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="5" t="s">
+      <c r="O30" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="5">
         <v>50</v>
       </c>
-      <c r="T30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V30" s="7" t="s">
+      <c r="T30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2924,7 +2906,7 @@
       <c r="A31" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2963,28 +2945,28 @@
       <c r="N31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="5" t="s">
+      <c r="O31" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="6">
+      <c r="S31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="5">
         <v>300</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="5">
         <v>300</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="V31" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2992,7 +2974,7 @@
       <c r="A32" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3031,28 +3013,28 @@
       <c r="N32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O32" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="5" t="s">
+      <c r="O32" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U32" s="6">
+      <c r="S32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U32" s="5">
         <v>300</v>
       </c>
-      <c r="V32" s="7" t="s">
+      <c r="V32" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3060,7 +3042,7 @@
       <c r="A33" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3099,28 +3081,28 @@
       <c r="N33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="5" t="s">
+      <c r="O33" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U33" s="6">
+      <c r="S33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33" s="5">
         <v>300</v>
       </c>
-      <c r="V33" s="7" t="s">
+      <c r="V33" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3128,7 +3110,7 @@
       <c r="A34" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3167,13 +3149,13 @@
       <c r="N34" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q34" s="5" t="s">
+      <c r="O34" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -3196,7 +3178,7 @@
       <c r="A35" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3235,13 +3217,13 @@
       <c r="N35" t="s">
         <v>29</v>
       </c>
-      <c r="O35" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="5" t="s">
+      <c r="O35" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R35" s="1" t="s">
@@ -3264,7 +3246,7 @@
       <c r="A36" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -3303,25 +3285,25 @@
       <c r="N36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T36" s="6">
+      <c r="O36" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="5">
         <v>300</v>
       </c>
-      <c r="U36" s="7" t="s">
+      <c r="U36" s="6" t="s">
         <v>29</v>
       </c>
       <c r="V36" t="s">
@@ -3332,7 +3314,7 @@
       <c r="A37" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -3371,13 +3353,13 @@
       <c r="N37" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q37" s="5" t="s">
+      <c r="O37" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R37" s="1">
@@ -3400,7 +3382,7 @@
       <c r="A38" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3439,28 +3421,28 @@
       <c r="N38" t="s">
         <v>29</v>
       </c>
-      <c r="O38" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="5" t="s">
+      <c r="O38" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="6">
+      <c r="S38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="5">
         <v>300</v>
       </c>
-      <c r="U38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V38" s="7" t="s">
+      <c r="U38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V38" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3468,7 +3450,7 @@
       <c r="A39" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3507,13 +3489,13 @@
       <c r="N39" t="s">
         <v>49</v>
       </c>
-      <c r="O39" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="5" t="s">
+      <c r="O39" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R39" s="1" t="s">
@@ -3536,7 +3518,7 @@
       <c r="A40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3575,13 +3557,13 @@
       <c r="N40" t="s">
         <v>49</v>
       </c>
-      <c r="O40" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="5" t="s">
+      <c r="O40" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -3604,7 +3586,7 @@
       <c r="A41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3643,13 +3625,13 @@
       <c r="N41" t="s">
         <v>49</v>
       </c>
-      <c r="O41" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="5" t="s">
+      <c r="O41" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -3672,7 +3654,7 @@
       <c r="A42" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3711,13 +3693,13 @@
       <c r="N42" t="s">
         <v>49</v>
       </c>
-      <c r="O42" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" s="5" t="s">
+      <c r="O42" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R42" s="1" t="s">
@@ -3740,7 +3722,7 @@
       <c r="A43" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3779,13 +3761,13 @@
       <c r="N43" t="s">
         <v>129</v>
       </c>
-      <c r="O43" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="5" t="s">
+      <c r="O43" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -3808,7 +3790,7 @@
       <c r="A44" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3847,13 +3829,13 @@
       <c r="N44" t="s">
         <v>49</v>
       </c>
-      <c r="O44" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="5" t="s">
+      <c r="O44" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R44">
@@ -3876,7 +3858,7 @@
       <c r="A45" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3915,13 +3897,13 @@
       <c r="N45" t="s">
         <v>49</v>
       </c>
-      <c r="O45" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="5" t="s">
+      <c r="O45" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R45">
@@ -3944,7 +3926,7 @@
       <c r="A46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3983,13 +3965,13 @@
       <c r="N46" t="s">
         <v>49</v>
       </c>
-      <c r="O46" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="5" t="s">
+      <c r="O46" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R46">
@@ -4012,7 +3994,7 @@
       <c r="A47" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -4051,13 +4033,13 @@
       <c r="N47" t="s">
         <v>49</v>
       </c>
-      <c r="O47" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="5" t="s">
+      <c r="O47" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R47">
@@ -4080,7 +4062,7 @@
       <c r="A48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4119,13 +4101,13 @@
       <c r="N48" t="s">
         <v>139</v>
       </c>
-      <c r="O48" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="5" t="s">
+      <c r="O48" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R48">
@@ -4148,7 +4130,7 @@
       <c r="A49" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4187,13 +4169,13 @@
       <c r="N49" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="5" t="s">
+      <c r="O49" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R49">
@@ -4216,7 +4198,7 @@
       <c r="A50" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4255,13 +4237,13 @@
       <c r="N50" t="s">
         <v>29</v>
       </c>
-      <c r="O50" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="5" t="s">
+      <c r="O50" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R50">
@@ -4284,7 +4266,7 @@
       <c r="A51" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4323,13 +4305,13 @@
       <c r="N51" t="s">
         <v>29</v>
       </c>
-      <c r="O51" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q51" s="5" t="s">
+      <c r="O51" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R51">
@@ -4352,7 +4334,7 @@
       <c r="A52" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -4391,13 +4373,13 @@
       <c r="N52" t="s">
         <v>29</v>
       </c>
-      <c r="O52" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" s="5" t="s">
+      <c r="O52" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R52" t="s">
@@ -4420,7 +4402,7 @@
       <c r="A53" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4459,13 +4441,13 @@
       <c r="N53" t="s">
         <v>29</v>
       </c>
-      <c r="O53" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" s="5" t="s">
+      <c r="O53" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R53" t="s">
@@ -4488,7 +4470,7 @@
       <c r="A54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -4527,13 +4509,13 @@
       <c r="N54" t="s">
         <v>49</v>
       </c>
-      <c r="O54" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q54" s="5" t="s">
+      <c r="O54" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R54" t="s">
@@ -4556,7 +4538,7 @@
       <c r="A55" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -4595,13 +4577,13 @@
       <c r="N55" t="s">
         <v>49</v>
       </c>
-      <c r="O55" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q55" s="5" t="s">
+      <c r="O55" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R55" t="s">
@@ -4624,7 +4606,7 @@
       <c r="A56" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -4663,13 +4645,13 @@
       <c r="N56" t="s">
         <v>49</v>
       </c>
-      <c r="O56" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q56" s="5" t="s">
+      <c r="O56" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R56" t="s">
@@ -4692,7 +4674,7 @@
       <c r="A57" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -4731,13 +4713,13 @@
       <c r="N57" t="s">
         <v>49</v>
       </c>
-      <c r="O57" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q57" s="5" t="s">
+      <c r="O57" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R57" t="s">
@@ -4760,7 +4742,7 @@
       <c r="A58" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -4799,13 +4781,13 @@
       <c r="N58" t="s">
         <v>49</v>
       </c>
-      <c r="O58" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q58" s="5" t="s">
+      <c r="O58" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q58" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R58" t="s">
@@ -4828,7 +4810,7 @@
       <c r="A59" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -4867,13 +4849,13 @@
       <c r="N59" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q59" s="5" t="s">
+      <c r="O59" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R59">
@@ -4896,7 +4878,7 @@
       <c r="A60" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -4935,13 +4917,13 @@
       <c r="N60" t="s">
         <v>49</v>
       </c>
-      <c r="O60" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q60" s="5" t="s">
+      <c r="O60" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R60">
@@ -4964,7 +4946,7 @@
       <c r="A61" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -5003,13 +4985,13 @@
       <c r="N61" t="s">
         <v>49</v>
       </c>
-      <c r="O61" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q61" s="5" t="s">
+      <c r="O61" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R61">
@@ -5032,7 +5014,7 @@
       <c r="A62" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -5071,13 +5053,13 @@
       <c r="N62" t="s">
         <v>49</v>
       </c>
-      <c r="O62" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q62" s="5" t="s">
+      <c r="O62" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R62">
@@ -5100,7 +5082,7 @@
       <c r="A63" t="s">
         <v>169</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -5139,13 +5121,13 @@
       <c r="N63" t="s">
         <v>49</v>
       </c>
-      <c r="O63" s="5">
-        <v>45384</v>
-      </c>
-      <c r="P63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q63" s="5" t="s">
+      <c r="O63" s="4">
+        <v>45384</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R63">

--- a/TestData/Web_POS/Promo/promo_test_data.xlsx
+++ b/TestData/Web_POS/Promo/promo_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Ginesys Zwing\Ginesys_Zwing_Automation\TestData\POS\Promo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Promo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>i9Qa_user1</t>
+  </si>
+  <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -579,8 +585,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -593,16 +616,19 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -829,8 +855,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="F1">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="F43">
+      <selection activeCell="G2" sqref="G2:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -951,17 +977,17 @@
       <c r="F2" s="2">
         <v>123456</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -970,39 +996,39 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O2" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1">
         <v>50</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -1019,17 +1045,17 @@
       <c r="F3" s="2">
         <v>123456</v>
       </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>500</v>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1038,39 +1064,39 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O3" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T3" s="1">
         <v>300</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -1087,17 +1113,17 @@
       <c r="F4" s="2">
         <v>123456</v>
       </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1106,39 +1132,39 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O4" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U4" s="1">
         <v>300</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -1155,17 +1181,17 @@
       <c r="F5" s="2">
         <v>123456</v>
       </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1174,39 +1200,39 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O5" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U5" s="1">
         <v>300</v>
       </c>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -1223,17 +1249,17 @@
       <c r="F6" s="2">
         <v>123456</v>
       </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>800</v>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1242,39 +1268,39 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O6" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -1291,17 +1317,17 @@
       <c r="F7" s="2">
         <v>123456</v>
       </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>600</v>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1310,39 +1336,39 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="O7" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -1359,17 +1385,17 @@
       <c r="F8" s="2">
         <v>123456</v>
       </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
-        <v>600</v>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1378,39 +1404,39 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -1427,17 +1453,17 @@
       <c r="F9" s="2">
         <v>123456</v>
       </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
-        <v>600</v>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1446,39 +1472,39 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O9" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1">
         <v>50</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1495,17 +1521,17 @@
       <c r="F10" s="2">
         <v>123456</v>
       </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10">
-        <v>600</v>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1514,39 +1540,39 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O10" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T10" s="1">
         <v>300</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -1563,17 +1589,17 @@
       <c r="F11" s="2">
         <v>123456</v>
       </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1582,39 +1608,39 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O11" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S11" s="1">
         <v>50</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -1631,17 +1657,17 @@
       <c r="F12" s="2">
         <v>123456</v>
       </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1650,39 +1676,39 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O12" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S12" s="1">
         <v>50</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1699,58 +1725,58 @@
       <c r="F13" s="2">
         <v>123456</v>
       </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>600</v>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O13" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T13" s="1">
         <v>300</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -1767,17 +1793,17 @@
       <c r="F14" s="2">
         <v>123456</v>
       </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>600</v>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -1786,39 +1812,39 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O14" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T14" s="1">
         <v>300</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -1835,58 +1861,58 @@
       <c r="F15" s="2">
         <v>123456</v>
       </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>600</v>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O15" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T15" s="1">
         <v>300</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -1903,17 +1929,17 @@
       <c r="F16" s="2">
         <v>123456</v>
       </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>600</v>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1922,39 +1948,39 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O16" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T16" s="1">
         <v>300</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1971,17 +1997,17 @@
       <c r="F17" s="2">
         <v>123456</v>
       </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
-        <v>600</v>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -1990,39 +2016,39 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="O17" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T17" s="1">
         <v>300</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2039,17 +2065,17 @@
       <c r="F18" s="2">
         <v>123456</v>
       </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>600</v>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2058,39 +2084,39 @@
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>31</v>
+        <v>77</v>
+      </c>
+      <c r="O18" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U18" s="1">
         <v>300</v>
       </c>
       <c r="V18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2107,17 +2133,17 @@
       <c r="F19" s="2">
         <v>123456</v>
       </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>600</v>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2126,39 +2152,39 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O19" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U19" s="1">
         <v>300</v>
       </c>
       <c r="V19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="25.5">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -2175,58 +2201,58 @@
       <c r="F20" s="2">
         <v>123456</v>
       </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20">
-        <v>600</v>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="N20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O20" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U20" s="1">
         <v>300</v>
       </c>
       <c r="V20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2243,17 +2269,17 @@
       <c r="F21" s="2">
         <v>123456</v>
       </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
-        <v>600</v>
+      <c r="G21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2262,39 +2288,39 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="O21" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S21" s="1">
         <v>50</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -2311,17 +2337,17 @@
       <c r="F22" s="2">
         <v>123456</v>
       </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-      <c r="H22">
-        <v>600</v>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2330,39 +2356,39 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="O22" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T22" s="1">
         <v>300</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="25.5">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2379,17 +2405,17 @@
       <c r="F23" s="2">
         <v>123456</v>
       </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-      <c r="H23">
-        <v>600</v>
+      <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2398,39 +2424,39 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O23" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
+      </c>
+      <c r="O23" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U23" s="1">
         <v>300</v>
       </c>
       <c r="V23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -2447,56 +2473,56 @@
       <c r="F24" s="2">
         <v>123456</v>
       </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24">
-        <v>600</v>
+      <c r="G24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="O24" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24" s="5">
+        <v>31</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="6">
         <v>300</v>
       </c>
-      <c r="V24" s="6" t="s">
-        <v>41</v>
+      <c r="V24" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2513,17 +2539,17 @@
       <c r="F25" s="2">
         <v>123456</v>
       </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25">
-        <v>600</v>
+      <c r="G25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2532,39 +2558,39 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O25" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O25" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S25" s="1">
         <v>50</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -2581,17 +2607,17 @@
       <c r="F26" s="2">
         <v>123456</v>
       </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
-        <v>600</v>
+      <c r="G26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2600,39 +2626,39 @@
         <v>2</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O26" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T26" s="1">
         <v>300</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2649,17 +2675,17 @@
       <c r="F27" s="2">
         <v>123456</v>
       </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>600</v>
+      <c r="G27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -2668,39 +2694,39 @@
         <v>2</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O27" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U27" s="1">
         <v>300</v>
       </c>
       <c r="V27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="25.5">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
@@ -2717,17 +2743,17 @@
       <c r="F28" s="2">
         <v>123456</v>
       </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
-        <v>600</v>
+      <c r="G28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2736,39 +2762,39 @@
         <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O28" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U28" s="1">
         <v>300</v>
       </c>
       <c r="V28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2785,17 +2811,17 @@
       <c r="F29" s="2">
         <v>123456</v>
       </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29">
-        <v>600</v>
+      <c r="G29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2804,39 +2830,39 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O29" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" s="5">
+        <v>31</v>
+      </c>
+      <c r="S29" s="6">
         <v>100</v>
       </c>
-      <c r="T29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>41</v>
+      <c r="T29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -2853,17 +2879,17 @@
       <c r="F30" s="2">
         <v>123456</v>
       </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30">
-        <v>600</v>
+      <c r="G30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -2872,39 +2898,39 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O30" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="5">
+        <v>31</v>
+      </c>
+      <c r="S30" s="6">
         <v>50</v>
       </c>
-      <c r="T30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>41</v>
+      <c r="T30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2921,17 +2947,17 @@
       <c r="F31" s="2">
         <v>123456</v>
       </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31">
-        <v>600</v>
+      <c r="G31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
@@ -2940,39 +2966,39 @@
         <v>1</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O31" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="5">
+        <v>31</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="6">
         <v>300</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="6">
         <v>300</v>
       </c>
-      <c r="V31" s="6" t="s">
-        <v>41</v>
+      <c r="V31" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
@@ -2989,17 +3015,17 @@
       <c r="F32" s="2">
         <v>123456</v>
       </c>
-      <c r="G32">
-        <v>1000</v>
-      </c>
-      <c r="H32">
-        <v>600</v>
+      <c r="G32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -3008,39 +3034,39 @@
         <v>1</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O32" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O32" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U32" s="5">
+        <v>31</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="6">
         <v>300</v>
       </c>
-      <c r="V32" s="6" t="s">
-        <v>37</v>
+      <c r="V32" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -3057,17 +3083,17 @@
       <c r="F33" s="2">
         <v>123456</v>
       </c>
-      <c r="G33">
-        <v>1000</v>
-      </c>
-      <c r="H33">
-        <v>600</v>
+      <c r="G33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
@@ -3076,39 +3102,39 @@
         <v>1</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O33" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O33" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U33" s="5">
+        <v>31</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="6">
         <v>300</v>
       </c>
-      <c r="V33" s="6" t="s">
-        <v>41</v>
+      <c r="V33" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -3125,17 +3151,17 @@
       <c r="F34" s="2">
         <v>123456</v>
       </c>
-      <c r="G34">
-        <v>1000</v>
-      </c>
-      <c r="H34">
-        <v>600</v>
+      <c r="G34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -3144,39 +3170,39 @@
         <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O34" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S34" s="1">
         <v>100</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -3193,17 +3219,17 @@
       <c r="F35" s="2">
         <v>123456</v>
       </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35">
-        <v>600</v>
+      <c r="G35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -3212,39 +3238,39 @@
         <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O35" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O35" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S35" s="1">
         <v>50</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -3261,17 +3287,17 @@
       <c r="F36" s="2">
         <v>123456</v>
       </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-      <c r="H36">
-        <v>600</v>
+      <c r="G36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -3280,39 +3306,39 @@
         <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T36" s="5">
+        <v>31</v>
+      </c>
+      <c r="O36" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="6">
         <v>300</v>
       </c>
-      <c r="U36" s="6" t="s">
-        <v>29</v>
+      <c r="U36" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="V36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
@@ -3329,17 +3355,17 @@
       <c r="F37" s="2">
         <v>123456</v>
       </c>
-      <c r="G37">
-        <v>1000</v>
-      </c>
-      <c r="H37">
-        <v>600</v>
+      <c r="G37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
@@ -3348,39 +3374,39 @@
         <v>2</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O37" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R37" s="1">
         <v>1</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U37" s="1">
         <v>300</v>
       </c>
       <c r="V37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
@@ -3397,17 +3423,17 @@
       <c r="F38" s="2">
         <v>123456</v>
       </c>
-      <c r="G38">
-        <v>1000</v>
-      </c>
-      <c r="H38">
-        <v>600</v>
+      <c r="G38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
@@ -3416,39 +3442,39 @@
         <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O38" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="5">
+        <v>31</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="6">
         <v>300</v>
       </c>
-      <c r="U38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>32</v>
+      <c r="U38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -3465,17 +3491,17 @@
       <c r="F39" s="2">
         <v>123456</v>
       </c>
-      <c r="G39">
-        <v>1000</v>
-      </c>
-      <c r="H39">
-        <v>600</v>
+      <c r="G39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
@@ -3484,39 +3510,39 @@
         <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N39" t="s">
-        <v>49</v>
-      </c>
-      <c r="O39" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O39" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S39" s="1">
         <v>100</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -3533,17 +3559,17 @@
       <c r="F40" s="2">
         <v>123456</v>
       </c>
-      <c r="G40">
-        <v>1000</v>
-      </c>
-      <c r="H40">
-        <v>600</v>
+      <c r="G40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
@@ -3552,39 +3578,39 @@
         <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N40" t="s">
-        <v>49</v>
-      </c>
-      <c r="O40" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O40" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S40" s="1">
         <v>50</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -3601,17 +3627,17 @@
       <c r="F41" s="2">
         <v>123456</v>
       </c>
-      <c r="G41">
-        <v>1000</v>
-      </c>
-      <c r="H41">
-        <v>600</v>
+      <c r="G41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
@@ -3620,39 +3646,39 @@
         <v>2</v>
       </c>
       <c r="M41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N41" t="s">
-        <v>49</v>
-      </c>
-      <c r="O41" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O41" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T41" s="1">
         <v>300</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -3669,17 +3695,17 @@
       <c r="F42" s="2">
         <v>123456</v>
       </c>
-      <c r="G42">
-        <v>1000</v>
-      </c>
-      <c r="H42">
-        <v>600</v>
+      <c r="G42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
@@ -3688,39 +3714,39 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N42" t="s">
-        <v>49</v>
-      </c>
-      <c r="O42" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O42" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U42" s="1">
         <v>300</v>
       </c>
       <c r="V42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -3737,17 +3763,17 @@
       <c r="F43" s="2">
         <v>123456</v>
       </c>
-      <c r="G43">
-        <v>1000</v>
-      </c>
-      <c r="H43">
-        <v>600</v>
+      <c r="G43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
@@ -3756,39 +3782,39 @@
         <v>2</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N43" t="s">
-        <v>129</v>
-      </c>
-      <c r="O43" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>31</v>
+        <v>131</v>
+      </c>
+      <c r="O43" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U43" s="1">
         <v>300</v>
       </c>
       <c r="V43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -3805,17 +3831,17 @@
       <c r="F44" s="2">
         <v>123456</v>
       </c>
-      <c r="G44">
-        <v>1000</v>
-      </c>
-      <c r="H44">
-        <v>600</v>
+      <c r="G44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
@@ -3824,19 +3850,19 @@
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N44" t="s">
-        <v>49</v>
-      </c>
-      <c r="O44" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O44" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3845,18 +3871,18 @@
         <v>100</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -3873,17 +3899,17 @@
       <c r="F45" s="2">
         <v>123456</v>
       </c>
-      <c r="G45">
-        <v>1000</v>
-      </c>
-      <c r="H45">
-        <v>600</v>
+      <c r="G45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
@@ -3892,19 +3918,19 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N45" t="s">
-        <v>49</v>
-      </c>
-      <c r="O45" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O45" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -3913,18 +3939,18 @@
         <v>50</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -3941,17 +3967,17 @@
       <c r="F46" s="2">
         <v>123456</v>
       </c>
-      <c r="G46">
-        <v>1000</v>
-      </c>
-      <c r="H46">
-        <v>600</v>
+      <c r="G46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
@@ -3960,39 +3986,39 @@
         <v>2</v>
       </c>
       <c r="M46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N46" t="s">
-        <v>49</v>
-      </c>
-      <c r="O46" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O46" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R46">
         <v>1</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T46" s="1">
         <v>300</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -4009,17 +4035,17 @@
       <c r="F47" s="2">
         <v>123456</v>
       </c>
-      <c r="G47">
-        <v>1000</v>
-      </c>
-      <c r="H47">
-        <v>600</v>
+      <c r="G47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
@@ -4028,39 +4054,39 @@
         <v>2</v>
       </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N47" t="s">
-        <v>49</v>
-      </c>
-      <c r="O47" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O47" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U47" s="1">
         <v>300</v>
       </c>
       <c r="V47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -4077,17 +4103,17 @@
       <c r="F48" s="2">
         <v>123456</v>
       </c>
-      <c r="G48">
-        <v>1000</v>
-      </c>
-      <c r="H48">
-        <v>600</v>
+      <c r="G48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
@@ -4096,39 +4122,39 @@
         <v>2</v>
       </c>
       <c r="M48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N48" t="s">
-        <v>139</v>
-      </c>
-      <c r="O48" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>31</v>
+        <v>141</v>
+      </c>
+      <c r="O48" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U48" s="1">
         <v>300</v>
       </c>
       <c r="V48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -4145,17 +4171,17 @@
       <c r="F49" s="2">
         <v>123456</v>
       </c>
-      <c r="G49">
-        <v>1000</v>
-      </c>
-      <c r="H49">
-        <v>600</v>
+      <c r="G49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4164,19 +4190,19 @@
         <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N49" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O49" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -4185,18 +4211,18 @@
         <v>100</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -4213,17 +4239,17 @@
       <c r="F50" s="2">
         <v>123456</v>
       </c>
-      <c r="G50">
-        <v>1000</v>
-      </c>
-      <c r="H50">
-        <v>600</v>
+      <c r="G50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -4232,19 +4258,19 @@
         <v>2</v>
       </c>
       <c r="M50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N50" t="s">
-        <v>29</v>
-      </c>
-      <c r="O50" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O50" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -4253,18 +4279,18 @@
         <v>50</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -4281,17 +4307,17 @@
       <c r="F51" s="2">
         <v>123456</v>
       </c>
-      <c r="G51">
-        <v>1000</v>
-      </c>
-      <c r="H51">
-        <v>600</v>
+      <c r="G51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
@@ -4300,39 +4326,39 @@
         <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N51" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O51" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R51">
         <v>1</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T51" s="1">
         <v>300</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -4349,17 +4375,17 @@
       <c r="F52" s="2">
         <v>123456</v>
       </c>
-      <c r="G52">
-        <v>1000</v>
-      </c>
-      <c r="H52">
-        <v>600</v>
+      <c r="G52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
@@ -4368,39 +4394,39 @@
         <v>2</v>
       </c>
       <c r="M52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N52" t="s">
-        <v>29</v>
-      </c>
-      <c r="O52" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O52" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U52" s="1">
         <v>300</v>
       </c>
       <c r="V52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -4417,17 +4443,17 @@
       <c r="F53" s="2">
         <v>123456</v>
       </c>
-      <c r="G53">
-        <v>1000</v>
-      </c>
-      <c r="H53">
-        <v>600</v>
+      <c r="G53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
@@ -4436,39 +4462,39 @@
         <v>2</v>
       </c>
       <c r="M53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N53" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="O53" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U53" s="1">
         <v>300</v>
       </c>
       <c r="V53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
@@ -4485,17 +4511,17 @@
       <c r="F54" s="2">
         <v>123456</v>
       </c>
-      <c r="G54">
-        <v>1000</v>
-      </c>
-      <c r="H54">
-        <v>600</v>
+      <c r="G54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
@@ -4504,39 +4530,39 @@
         <v>2</v>
       </c>
       <c r="M54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N54" t="s">
-        <v>49</v>
-      </c>
-      <c r="O54" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O54" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S54" s="1">
         <v>100</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
@@ -4553,17 +4579,17 @@
       <c r="F55" s="2">
         <v>123456</v>
       </c>
-      <c r="G55">
-        <v>1000</v>
-      </c>
-      <c r="H55">
-        <v>600</v>
+      <c r="G55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
@@ -4572,39 +4598,39 @@
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N55" t="s">
-        <v>49</v>
-      </c>
-      <c r="O55" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O55" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S55" s="1">
         <v>50</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>23</v>
@@ -4621,17 +4647,17 @@
       <c r="F56" s="2">
         <v>123456</v>
       </c>
-      <c r="G56">
-        <v>1000</v>
-      </c>
-      <c r="H56">
-        <v>600</v>
+      <c r="G56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
@@ -4640,39 +4666,39 @@
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>49</v>
-      </c>
-      <c r="O56" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O56" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T56" s="1">
         <v>300</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -4689,17 +4715,17 @@
       <c r="F57" s="2">
         <v>123456</v>
       </c>
-      <c r="G57">
-        <v>1000</v>
-      </c>
-      <c r="H57">
-        <v>600</v>
+      <c r="G57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K57" s="1">
         <v>1</v>
@@ -4708,39 +4734,39 @@
         <v>2</v>
       </c>
       <c r="M57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N57" t="s">
-        <v>49</v>
-      </c>
-      <c r="O57" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O57" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U57" s="1">
         <v>300</v>
       </c>
       <c r="V57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
@@ -4757,17 +4783,17 @@
       <c r="F58" s="2">
         <v>123456</v>
       </c>
-      <c r="G58">
-        <v>1000</v>
-      </c>
-      <c r="H58">
-        <v>600</v>
+      <c r="G58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K58" s="1">
         <v>1</v>
@@ -4776,39 +4802,39 @@
         <v>2</v>
       </c>
       <c r="M58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O58" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O58" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U58" s="1">
         <v>300</v>
       </c>
       <c r="V58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
@@ -4825,17 +4851,17 @@
       <c r="F59" s="2">
         <v>123456</v>
       </c>
-      <c r="G59">
-        <v>1000</v>
-      </c>
-      <c r="H59">
-        <v>600</v>
+      <c r="G59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K59" s="1">
         <v>1</v>
@@ -4844,19 +4870,19 @@
         <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N59" t="s">
-        <v>49</v>
-      </c>
-      <c r="O59" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O59" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -4865,18 +4891,18 @@
         <v>100</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
@@ -4893,17 +4919,17 @@
       <c r="F60" s="2">
         <v>123456</v>
       </c>
-      <c r="G60">
-        <v>1000</v>
-      </c>
-      <c r="H60">
-        <v>600</v>
+      <c r="G60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K60" s="1">
         <v>1</v>
@@ -4912,19 +4938,19 @@
         <v>2</v>
       </c>
       <c r="M60" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N60" t="s">
-        <v>49</v>
-      </c>
-      <c r="O60" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O60" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -4933,18 +4959,18 @@
         <v>50</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
@@ -4961,17 +4987,17 @@
       <c r="F61" s="2">
         <v>123456</v>
       </c>
-      <c r="G61">
-        <v>1000</v>
-      </c>
-      <c r="H61">
-        <v>600</v>
+      <c r="G61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
@@ -4980,39 +5006,39 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N61" t="s">
-        <v>49</v>
-      </c>
-      <c r="O61" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O61" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R61">
         <v>1</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T61" s="1">
         <v>300</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>23</v>
@@ -5029,17 +5055,17 @@
       <c r="F62" s="2">
         <v>123456</v>
       </c>
-      <c r="G62">
-        <v>1000</v>
-      </c>
-      <c r="H62">
-        <v>600</v>
+      <c r="G62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
@@ -5048,39 +5074,39 @@
         <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N62" t="s">
-        <v>49</v>
-      </c>
-      <c r="O62" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O62" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U62" s="1">
         <v>300</v>
       </c>
       <c r="V62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>23</v>
@@ -5097,17 +5123,17 @@
       <c r="F63" s="2">
         <v>123456</v>
       </c>
-      <c r="G63">
-        <v>1000</v>
-      </c>
-      <c r="H63">
-        <v>600</v>
+      <c r="G63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K63" s="1">
         <v>1</v>
@@ -5116,34 +5142,34 @@
         <v>2</v>
       </c>
       <c r="M63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N63" t="s">
-        <v>49</v>
-      </c>
-      <c r="O63" s="4">
-        <v>45384</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="O63" s="5">
+        <v>45384</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R63">
         <v>1</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U63" s="1">
         <v>300</v>
       </c>
       <c r="V63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="12.75"/>
